--- a/Unity/Assets/Config/Excel/StartConfig/Benchmark/StartMachineConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Benchmark/StartMachineConfig.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t xml:space="preserve">##var</t>
   </si>
@@ -65,18 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">18.166.14.188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.31.47.167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.162.194.134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.31.35.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.163.25.199</t>
   </si>
 </sst>
 </file>
@@ -313,7 +301,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -397,33 +385,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
-      <c r="B5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>10000</v>
-      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>10000</v>
-      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
